--- a/NodeJS_Training_Plan_1.xlsx
+++ b/NodeJS_Training_Plan_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbaraju.chiluvuri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{87CFF6E1-FA9D-4263-8D38-2633EDBEE27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D847F545-6216-4326-8903-7FB3544B6026}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B237267A-47BA-4641-ACB0-B3B1B59EF80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B162A122-4C29-4FB0-AC2B-775CC3B75672}"/>
+    <workbookView minimized="1" xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{B162A122-4C29-4FB0-AC2B-775CC3B75672}"/>
   </bookViews>
   <sheets>
     <sheet name="Node JS" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t xml:space="preserve">Sno </t>
   </si>
@@ -372,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,12 +387,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -421,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -521,19 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -550,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -631,41 +612,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,26 +959,26 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="29.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1">
+    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1065,7 +1040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1">
+    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1092,10 +1067,10 @@
         <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="35.25" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1121,9 +1096,11 @@
       <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="34.5" customHeight="1">
+      <c r="J4" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1149,9 +1126,11 @@
       <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1">
+      <c r="J5" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1171,15 +1150,17 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" ht="51.75" customHeight="1">
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1196,18 +1177,20 @@
       <c r="F7" s="23">
         <v>45261</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1">
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -1224,14 +1207,20 @@
       <c r="F8" s="23">
         <v>45264</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1">
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1248,12 +1237,20 @@
       <c r="F9" s="23">
         <v>45265</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="30.75">
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1270,12 +1267,20 @@
       <c r="F10" s="23">
         <v>45266</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1">
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1292,12 +1297,20 @@
       <c r="F11" s="23">
         <v>45267</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" s="20" customFormat="1" ht="30.75">
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1314,12 +1327,18 @@
       <c r="F12" s="23">
         <v>45268</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1">
+    <row r="13" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1336,12 +1355,18 @@
       <c r="F13" s="23">
         <v>45272</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1">
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1358,12 +1383,18 @@
       <c r="F14" s="23">
         <v>45273</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="15">
+    <row r="15" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1380,18 +1411,22 @@
       <c r="F15" s="23">
         <v>45275</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="28"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="15">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="26">
         <v>45278</v>
       </c>
@@ -1399,7 +1434,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="20" customFormat="1" ht="45.75">
+    <row r="17" spans="1:10" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -1421,7 +1456,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1443,7 +1478,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="28.9">
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -1465,7 +1500,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="28.9">
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1487,7 +1522,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="28.9">
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -1509,7 +1544,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1531,7 +1566,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>21</v>
       </c>
@@ -1553,7 +1588,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1575,7 +1610,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -1597,7 +1632,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1619,7 +1654,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1641,13 +1676,13 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" s="20" customFormat="1" ht="15">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="27">
         <v>45302</v>
       </c>
@@ -1655,7 +1690,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -1677,7 +1712,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -1699,7 +1734,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1721,7 +1756,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1743,7 +1778,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="28.9">
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -1765,13 +1800,13 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="27">
         <v>45320</v>
       </c>
@@ -1799,18 +1834,18 @@
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="29.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1840,17 +1875,17 @@
       <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="37">
+      <c r="D2" s="33">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
         <v>45246</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="30">
         <v>45246</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.9" customHeight="1">
+    <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1860,11 +1895,11 @@
       <c r="C3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.9" customHeight="1">
+      <c r="D3" s="34"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1874,11 +1909,11 @@
       <c r="C4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.9">
+      <c r="D4" s="34"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1888,17 +1923,17 @@
       <c r="C5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="33">
-        <v>1</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
         <v>45247</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="30">
         <v>45247</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="115.15" customHeight="1">
+    <row r="6" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1908,11 +1943,11 @@
       <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:6" ht="43.15">
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1922,17 +1957,17 @@
       <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="33">
-        <v>1</v>
-      </c>
-      <c r="E7" s="37">
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
         <v>45250</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>45250</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.15" customHeight="1">
+    <row r="8" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1942,11 +1977,11 @@
       <c r="C8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-    </row>
-    <row r="9" spans="1:6" ht="158.44999999999999">
+      <c r="D8" s="35"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1966,7 +2001,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="115.15" customHeight="1">
+    <row r="10" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1976,17 +2011,17 @@
       <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="33">
-        <v>1</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="D10" s="35">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30">
         <v>45252</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="30">
         <v>45252</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72" customHeight="1">
+    <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1996,11 +2031,11 @@
       <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12" spans="1:6" ht="100.9">
+      <c r="D11" s="35"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2020,7 +2055,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" customHeight="1">
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2030,17 +2065,17 @@
       <c r="C13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>2</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="30">
         <v>45254</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="30">
         <v>45257</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.9" customHeight="1">
+    <row r="14" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2050,11 +2085,11 @@
       <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.45" customHeight="1">
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2065,10 +2100,10 @@
         <v>73</v>
       </c>
       <c r="D15" s="36"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.9">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2088,7 +2123,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" customHeight="1">
+    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2108,7 +2143,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2118,17 +2153,17 @@
       <c r="C18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="33">
-        <v>1</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="D18" s="35">
+        <v>1</v>
+      </c>
+      <c r="E18" s="30">
         <v>45261</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="30">
         <v>45261</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2138,11 +2173,11 @@
       <c r="C19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="35"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2152,17 +2187,17 @@
       <c r="C20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="35">
         <v>2</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="30">
         <v>45264</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="30">
         <v>45265</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2172,11 +2207,11 @@
       <c r="C21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="D21" s="35"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2186,17 +2221,17 @@
       <c r="C22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="35">
         <v>2</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="30">
         <v>45266</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="30">
         <v>45267</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2206,11 +2241,11 @@
       <c r="C23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="D23" s="35"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2220,17 +2255,17 @@
       <c r="C24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="35">
         <v>2</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="30">
         <v>45268</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="30">
         <v>45271</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2240,11 +2275,11 @@
       <c r="C25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="35"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2254,17 +2289,17 @@
       <c r="C26" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="35">
         <v>2</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="30">
         <v>45272</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="30">
         <v>45273</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2274,11 +2309,11 @@
       <c r="C27" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="D27" s="33"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2296,7 +2331,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -2304,7 +2339,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -2312,7 +2347,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="16" t="s">
@@ -2331,12 +2366,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="E20:E21"/>
@@ -2345,22 +2390,12 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://www.tutorialspoint.com/flask/flask_routing.htm" xr:uid="{B39CAA1D-4E41-4035-BC1A-27E2DC3EDB43}"/>
